--- a/data/output/FV2504_FV2410/UTILMD/55018.xlsx
+++ b/data/output/FV2504_FV2410/UTILMD/55018.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2019" uniqueCount="247">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2040" uniqueCount="247">
+  <si>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2504</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2504</t>
+  </si>
+  <si>
+    <t>Segment_FV2504</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2504</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2504</t>
+  </si>
+  <si>
+    <t>Code_FV2504</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2504</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2504</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -893,6 +893,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U95" totalsRowShown="0">
+  <autoFilter ref="A1:U95"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2410"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="3" name="Segment_FV2410"/>
+    <tableColumn id="4" name="Datenelement_FV2410"/>
+    <tableColumn id="5" name="Segment ID_FV2410"/>
+    <tableColumn id="6" name="Code_FV2410"/>
+    <tableColumn id="7" name="Qualifier_FV2410"/>
+    <tableColumn id="8" name="Beschreibung_FV2410"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="10" name="Bedingung_FV2410"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2504"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2504"/>
+    <tableColumn id="14" name="Segment_FV2504"/>
+    <tableColumn id="15" name="Datenelement_FV2504"/>
+    <tableColumn id="16" name="Segment ID_FV2504"/>
+    <tableColumn id="17" name="Code_FV2504"/>
+    <tableColumn id="18" name="Qualifier_FV2504"/>
+    <tableColumn id="19" name="Beschreibung_FV2504"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2504"/>
+    <tableColumn id="21" name="Bedingung_FV2504"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1182,7 +1212,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U95"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -5678,5 +5711,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2504_FV2410/UTILMD/55018.xlsx
+++ b/data/output/FV2504_FV2410/UTILMD/55018.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2478" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2472" uniqueCount="340">
   <si>
     <t>#</t>
   </si>
@@ -5535,44 +5535,42 @@
       <c r="V77" s="5"/>
     </row>
     <row r="78" spans="1:22">
-      <c r="A78" s="5" t="s">
+      <c r="A78" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="B78" s="5" t="s">
+      <c r="B78" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C78" s="5" t="s">
+      <c r="C78" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D78" s="5"/>
-      <c r="E78" s="5"/>
-      <c r="F78" s="5"/>
-      <c r="G78" s="5"/>
-      <c r="H78" s="5"/>
-      <c r="I78" s="5"/>
-      <c r="J78" s="5" t="s">
+      <c r="D78" s="2"/>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2"/>
+      <c r="G78" s="2"/>
+      <c r="H78" s="2"/>
+      <c r="I78" s="2"/>
+      <c r="J78" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="K78" s="5"/>
-      <c r="L78" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="M78" s="5" t="s">
+      <c r="K78" s="2"/>
+      <c r="L78" s="4"/>
+      <c r="M78" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="N78" s="5" t="s">
+      <c r="N78" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="O78" s="5"/>
-      <c r="P78" s="5"/>
-      <c r="Q78" s="5"/>
-      <c r="R78" s="5"/>
-      <c r="S78" s="5"/>
-      <c r="T78" s="5"/>
-      <c r="U78" s="5" t="s">
+      <c r="O78" s="2"/>
+      <c r="P78" s="2"/>
+      <c r="Q78" s="2"/>
+      <c r="R78" s="2"/>
+      <c r="S78" s="2"/>
+      <c r="T78" s="2"/>
+      <c r="U78" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="V78" s="5"/>
+      <c r="V78" s="2"/>
     </row>
     <row r="79" spans="1:22">
       <c r="A79" s="5" t="s">
@@ -5710,9 +5708,7 @@
         <v>198</v>
       </c>
       <c r="K81" s="5"/>
-      <c r="L81" s="7" t="s">
-        <v>228</v>
-      </c>
+      <c r="L81" s="4"/>
       <c r="M81" s="5" t="s">
         <v>38</v>
       </c>
@@ -5739,44 +5735,42 @@
       <c r="V81" s="5"/>
     </row>
     <row r="82" spans="1:22">
-      <c r="A82" s="5" t="s">
+      <c r="A82" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="B82" s="5" t="s">
+      <c r="B82" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C82" s="5" t="s">
+      <c r="C82" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D82" s="5"/>
-      <c r="E82" s="5"/>
-      <c r="F82" s="5"/>
-      <c r="G82" s="5"/>
-      <c r="H82" s="5"/>
-      <c r="I82" s="5"/>
-      <c r="J82" s="5" t="s">
+      <c r="D82" s="2"/>
+      <c r="E82" s="2"/>
+      <c r="F82" s="2"/>
+      <c r="G82" s="2"/>
+      <c r="H82" s="2"/>
+      <c r="I82" s="2"/>
+      <c r="J82" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="K82" s="5"/>
-      <c r="L82" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="M82" s="5" t="s">
+      <c r="K82" s="2"/>
+      <c r="L82" s="4"/>
+      <c r="M82" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="N82" s="5" t="s">
+      <c r="N82" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="O82" s="5"/>
-      <c r="P82" s="5"/>
-      <c r="Q82" s="5"/>
-      <c r="R82" s="5"/>
-      <c r="S82" s="5"/>
-      <c r="T82" s="5"/>
-      <c r="U82" s="5" t="s">
+      <c r="O82" s="2"/>
+      <c r="P82" s="2"/>
+      <c r="Q82" s="2"/>
+      <c r="R82" s="2"/>
+      <c r="S82" s="2"/>
+      <c r="T82" s="2"/>
+      <c r="U82" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="V82" s="5"/>
+      <c r="V82" s="2"/>
     </row>
     <row r="83" spans="1:22">
       <c r="A83" s="5" t="s">

--- a/data/output/FV2504_FV2410/UTILMD/55018.xlsx
+++ b/data/output/FV2504_FV2410/UTILMD/55018.xlsx
@@ -1156,7 +1156,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1179,6 +1179,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1187,6 +1190,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1629,7 +1635,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -1993,7 +1999,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -2139,7 +2145,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -2341,7 +2347,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2" t="s">
@@ -2649,7 +2655,7 @@
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="4"/>
-      <c r="M22" s="2" t="s">
+      <c r="M22" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N22" s="2" t="s">
@@ -2849,7 +2855,7 @@
       </c>
       <c r="K26" s="2"/>
       <c r="L26" s="4"/>
-      <c r="M26" s="2" t="s">
+      <c r="M26" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N26" s="2" t="s">
@@ -3223,7 +3229,7 @@
       </c>
       <c r="K33" s="2"/>
       <c r="L33" s="4"/>
-      <c r="M33" s="2" t="s">
+      <c r="M33" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N33" s="2" t="s">
@@ -3531,7 +3537,7 @@
       </c>
       <c r="K39" s="2"/>
       <c r="L39" s="4"/>
-      <c r="M39" s="2" t="s">
+      <c r="M39" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N39" s="2" t="s">
@@ -3707,26 +3713,26 @@
       <c r="V42" s="5"/>
     </row>
     <row r="43" spans="1:22">
-      <c r="A43" s="5" t="s">
+      <c r="A43" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B43" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="C43" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D43" s="5" t="s">
+      <c r="D43" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E43" s="5"/>
+      <c r="E43" s="2"/>
       <c r="F43" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="5"/>
-      <c r="J43" s="5" t="s">
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2" t="s">
         <v>203</v>
       </c>
       <c r="K43" s="6" t="s">
@@ -3735,23 +3741,23 @@
       <c r="L43" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="M43" s="5" t="s">
+      <c r="M43" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="N43" s="5" t="s">
+      <c r="N43" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="O43" s="5" t="s">
+      <c r="O43" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="P43" s="5"/>
+      <c r="P43" s="2"/>
       <c r="Q43" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="R43" s="5"/>
-      <c r="S43" s="5"/>
-      <c r="T43" s="5"/>
-      <c r="U43" s="5" t="s">
+      <c r="R43" s="2"/>
+      <c r="S43" s="2"/>
+      <c r="T43" s="2"/>
+      <c r="U43" s="2" t="s">
         <v>203</v>
       </c>
       <c r="V43" s="6" t="s">
@@ -3989,25 +3995,25 @@
       <c r="V47" s="5"/>
     </row>
     <row r="48" spans="1:22">
-      <c r="A48" s="5" t="s">
+      <c r="A48" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="B48" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C48" s="5" t="s">
+      <c r="C48" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D48" s="5" t="s">
+      <c r="D48" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E48" s="5"/>
+      <c r="E48" s="2"/>
       <c r="F48" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="G48" s="5"/>
-      <c r="H48" s="5"/>
-      <c r="I48" s="5"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
       <c r="J48" s="6" t="s">
         <v>205</v>
       </c>
@@ -4017,22 +4023,22 @@
       <c r="L48" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="M48" s="5" t="s">
+      <c r="M48" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="N48" s="5" t="s">
+      <c r="N48" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="O48" s="5" t="s">
+      <c r="O48" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="P48" s="5"/>
+      <c r="P48" s="2"/>
       <c r="Q48" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="R48" s="5"/>
-      <c r="S48" s="5"/>
-      <c r="T48" s="5"/>
+      <c r="R48" s="2"/>
+      <c r="S48" s="2"/>
+      <c r="T48" s="2"/>
       <c r="U48" s="6" t="s">
         <v>241</v>
       </c>
@@ -4217,26 +4223,26 @@
       <c r="V51" s="5"/>
     </row>
     <row r="52" spans="1:22">
-      <c r="A52" s="5" t="s">
+      <c r="A52" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="B52" s="5" t="s">
+      <c r="B52" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C52" s="5" t="s">
+      <c r="C52" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="5" t="s">
+      <c r="D52" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E52" s="5"/>
-      <c r="F52" s="5" t="s">
+      <c r="E52" s="2"/>
+      <c r="F52" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="G52" s="5"/>
-      <c r="H52" s="5"/>
-      <c r="I52" s="5"/>
-      <c r="J52" s="5" t="s">
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+      <c r="J52" s="2" t="s">
         <v>206</v>
       </c>
       <c r="K52" s="6" t="s">
@@ -4245,23 +4251,23 @@
       <c r="L52" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="M52" s="5" t="s">
+      <c r="M52" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="N52" s="5" t="s">
+      <c r="N52" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="O52" s="5" t="s">
+      <c r="O52" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="P52" s="5"/>
-      <c r="Q52" s="5" t="s">
+      <c r="P52" s="2"/>
+      <c r="Q52" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="R52" s="5"/>
-      <c r="S52" s="5"/>
-      <c r="T52" s="5"/>
-      <c r="U52" s="5" t="s">
+      <c r="R52" s="2"/>
+      <c r="S52" s="2"/>
+      <c r="T52" s="2"/>
+      <c r="U52" s="2" t="s">
         <v>206</v>
       </c>
       <c r="V52" s="6" t="s">
@@ -4465,7 +4471,7 @@
         <v>220</v>
       </c>
       <c r="L56" s="4"/>
-      <c r="M56" s="2" t="s">
+      <c r="M56" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N56" s="2" t="s">
@@ -4725,26 +4731,26 @@
       <c r="B61" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C61" s="8" t="s">
+      <c r="C61" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D61" s="8" t="s">
+      <c r="D61" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E61" s="8"/>
-      <c r="F61" s="8" t="s">
+      <c r="E61" s="9"/>
+      <c r="F61" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="G61" s="8"/>
-      <c r="H61" s="8"/>
-      <c r="I61" s="8"/>
-      <c r="J61" s="8" t="s">
+      <c r="G61" s="9"/>
+      <c r="H61" s="9"/>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="K61" s="8" t="s">
+      <c r="K61" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="L61" s="9" t="s">
+      <c r="L61" s="10" t="s">
         <v>229</v>
       </c>
       <c r="M61" s="5"/>
@@ -4762,33 +4768,33 @@
       <c r="A62" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="B62" s="8" t="s">
+      <c r="B62" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C62" s="8" t="s">
+      <c r="C62" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D62" s="8" t="s">
+      <c r="D62" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E62" s="8" t="s">
+      <c r="E62" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="F62" s="8" t="s">
+      <c r="F62" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="G62" s="8" t="s">
+      <c r="G62" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="H62" s="8"/>
-      <c r="I62" s="8" t="s">
+      <c r="H62" s="9"/>
+      <c r="I62" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="J62" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="K62" s="8"/>
-      <c r="L62" s="9" t="s">
+      <c r="J62" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="K62" s="9"/>
+      <c r="L62" s="10" t="s">
         <v>229</v>
       </c>
       <c r="M62" s="5"/>
@@ -4806,33 +4812,33 @@
       <c r="A63" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="B63" s="8" t="s">
+      <c r="B63" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C63" s="8" t="s">
+      <c r="C63" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D63" s="8" t="s">
+      <c r="D63" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E63" s="8" t="s">
+      <c r="E63" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="F63" s="8" t="s">
+      <c r="F63" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="G63" s="8" t="s">
+      <c r="G63" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="H63" s="8"/>
-      <c r="I63" s="8" t="s">
+      <c r="H63" s="9"/>
+      <c r="I63" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="J63" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="K63" s="8"/>
-      <c r="L63" s="9" t="s">
+      <c r="J63" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="K63" s="9"/>
+      <c r="L63" s="10" t="s">
         <v>229</v>
       </c>
       <c r="M63" s="5"/>
@@ -4860,29 +4866,29 @@
       <c r="I64" s="5"/>
       <c r="J64" s="5"/>
       <c r="K64" s="5"/>
-      <c r="L64" s="10" t="s">
+      <c r="L64" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="M64" s="11" t="s">
+      <c r="M64" s="12" t="s">
         <v>231</v>
       </c>
-      <c r="N64" s="11" t="s">
+      <c r="N64" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="O64" s="11" t="s">
+      <c r="O64" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="P64" s="11"/>
-      <c r="Q64" s="11" t="s">
+      <c r="P64" s="13"/>
+      <c r="Q64" s="13" t="s">
         <v>233</v>
       </c>
-      <c r="R64" s="11"/>
-      <c r="S64" s="11"/>
-      <c r="T64" s="11"/>
-      <c r="U64" s="11" t="s">
+      <c r="R64" s="13"/>
+      <c r="S64" s="13"/>
+      <c r="T64" s="13"/>
+      <c r="U64" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="V64" s="11"/>
+      <c r="V64" s="13"/>
     </row>
     <row r="65" spans="1:22">
       <c r="A65" s="5" t="s">
@@ -4898,35 +4904,35 @@
       <c r="I65" s="5"/>
       <c r="J65" s="5"/>
       <c r="K65" s="5"/>
-      <c r="L65" s="10" t="s">
+      <c r="L65" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="M65" s="11" t="s">
+      <c r="M65" s="13" t="s">
         <v>231</v>
       </c>
-      <c r="N65" s="11" t="s">
+      <c r="N65" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="O65" s="11" t="s">
+      <c r="O65" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="P65" s="11" t="s">
+      <c r="P65" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="Q65" s="11" t="s">
+      <c r="Q65" s="13" t="s">
         <v>233</v>
       </c>
-      <c r="R65" s="11" t="s">
+      <c r="R65" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="S65" s="11"/>
-      <c r="T65" s="11" t="s">
+      <c r="S65" s="13"/>
+      <c r="T65" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="U65" s="11" t="s">
-        <v>198</v>
-      </c>
-      <c r="V65" s="11"/>
+      <c r="U65" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="V65" s="13"/>
     </row>
     <row r="66" spans="1:22">
       <c r="A66" s="5" t="s">
@@ -4942,85 +4948,85 @@
       <c r="I66" s="5"/>
       <c r="J66" s="5"/>
       <c r="K66" s="5"/>
-      <c r="L66" s="10" t="s">
+      <c r="L66" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="M66" s="11" t="s">
+      <c r="M66" s="13" t="s">
         <v>231</v>
       </c>
-      <c r="N66" s="11" t="s">
+      <c r="N66" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="O66" s="11" t="s">
+      <c r="O66" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="P66" s="11" t="s">
+      <c r="P66" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="Q66" s="11" t="s">
+      <c r="Q66" s="13" t="s">
         <v>233</v>
       </c>
-      <c r="R66" s="11" t="s">
+      <c r="R66" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="S66" s="11"/>
-      <c r="T66" s="11" t="s">
+      <c r="S66" s="13"/>
+      <c r="T66" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="U66" s="11" t="s">
-        <v>198</v>
-      </c>
-      <c r="V66" s="11"/>
+      <c r="U66" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="V66" s="13"/>
     </row>
     <row r="67" spans="1:22">
-      <c r="A67" s="5" t="s">
+      <c r="A67" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="B67" s="5" t="s">
+      <c r="B67" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C67" s="5" t="s">
+      <c r="C67" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D67" s="5" t="s">
+      <c r="D67" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E67" s="5"/>
+      <c r="E67" s="2"/>
       <c r="F67" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="G67" s="5"/>
-      <c r="H67" s="5"/>
-      <c r="I67" s="5"/>
-      <c r="J67" s="5" t="s">
+      <c r="G67" s="2"/>
+      <c r="H67" s="2"/>
+      <c r="I67" s="2"/>
+      <c r="J67" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="K67" s="5" t="s">
+      <c r="K67" s="2" t="s">
         <v>222</v>
       </c>
       <c r="L67" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="M67" s="5" t="s">
+      <c r="M67" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="N67" s="5" t="s">
+      <c r="N67" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="O67" s="5" t="s">
+      <c r="O67" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="P67" s="5"/>
+      <c r="P67" s="2"/>
       <c r="Q67" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="R67" s="5"/>
-      <c r="S67" s="5"/>
-      <c r="T67" s="5"/>
-      <c r="U67" s="5" t="s">
+      <c r="R67" s="2"/>
+      <c r="S67" s="2"/>
+      <c r="T67" s="2"/>
+      <c r="U67" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="V67" s="5" t="s">
+      <c r="V67" s="2" t="s">
         <v>222</v>
       </c>
     </row>
@@ -5205,25 +5211,25 @@
       <c r="V70" s="5"/>
     </row>
     <row r="71" spans="1:22">
-      <c r="A71" s="5" t="s">
+      <c r="A71" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="B71" s="5" t="s">
+      <c r="B71" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C71" s="5" t="s">
+      <c r="C71" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D71" s="5" t="s">
+      <c r="D71" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E71" s="5"/>
+      <c r="E71" s="2"/>
       <c r="F71" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="G71" s="5"/>
-      <c r="H71" s="5"/>
-      <c r="I71" s="5"/>
+      <c r="G71" s="2"/>
+      <c r="H71" s="2"/>
+      <c r="I71" s="2"/>
       <c r="J71" s="6" t="s">
         <v>211</v>
       </c>
@@ -5233,22 +5239,22 @@
       <c r="L71" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="M71" s="5" t="s">
+      <c r="M71" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="N71" s="5" t="s">
+      <c r="N71" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="O71" s="5" t="s">
+      <c r="O71" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="P71" s="5"/>
+      <c r="P71" s="2"/>
       <c r="Q71" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="R71" s="5"/>
-      <c r="S71" s="5"/>
-      <c r="T71" s="5"/>
+      <c r="R71" s="2"/>
+      <c r="S71" s="2"/>
+      <c r="T71" s="2"/>
       <c r="U71" s="6" t="s">
         <v>243</v>
       </c>
@@ -5379,22 +5385,22 @@
       <c r="B74" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C74" s="8" t="s">
+      <c r="C74" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D74" s="8"/>
-      <c r="E74" s="8"/>
-      <c r="F74" s="8"/>
-      <c r="G74" s="8"/>
-      <c r="H74" s="8"/>
-      <c r="I74" s="8"/>
-      <c r="J74" s="8" t="s">
+      <c r="D74" s="9"/>
+      <c r="E74" s="9"/>
+      <c r="F74" s="9"/>
+      <c r="G74" s="9"/>
+      <c r="H74" s="9"/>
+      <c r="I74" s="9"/>
+      <c r="J74" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="K74" s="8" t="s">
+      <c r="K74" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="L74" s="9" t="s">
+      <c r="L74" s="10" t="s">
         <v>229</v>
       </c>
       <c r="M74" s="5"/>
@@ -5412,27 +5418,27 @@
       <c r="A75" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="B75" s="8" t="s">
+      <c r="B75" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C75" s="8" t="s">
+      <c r="C75" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D75" s="8" t="s">
+      <c r="D75" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="E75" s="8"/>
-      <c r="F75" s="8" t="s">
+      <c r="E75" s="9"/>
+      <c r="F75" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="G75" s="8"/>
-      <c r="H75" s="8"/>
-      <c r="I75" s="8"/>
-      <c r="J75" s="8" t="s">
+      <c r="G75" s="9"/>
+      <c r="H75" s="9"/>
+      <c r="I75" s="9"/>
+      <c r="J75" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="K75" s="8"/>
-      <c r="L75" s="9" t="s">
+      <c r="K75" s="9"/>
+      <c r="L75" s="10" t="s">
         <v>229</v>
       </c>
       <c r="M75" s="5"/>
@@ -5450,33 +5456,33 @@
       <c r="A76" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="B76" s="8" t="s">
+      <c r="B76" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C76" s="8" t="s">
+      <c r="C76" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D76" s="8" t="s">
+      <c r="D76" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="E76" s="8" t="s">
+      <c r="E76" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="F76" s="8" t="s">
+      <c r="F76" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="G76" s="8" t="s">
+      <c r="G76" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="H76" s="8"/>
-      <c r="I76" s="8" t="s">
+      <c r="H76" s="9"/>
+      <c r="I76" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="J76" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="K76" s="8"/>
-      <c r="L76" s="9" t="s">
+      <c r="J76" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="K76" s="9"/>
+      <c r="L76" s="10" t="s">
         <v>229</v>
       </c>
       <c r="M76" s="5"/>
@@ -5494,33 +5500,33 @@
       <c r="A77" s="5" t="s">
         <v>321</v>
       </c>
-      <c r="B77" s="8" t="s">
+      <c r="B77" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C77" s="8" t="s">
+      <c r="C77" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D77" s="8" t="s">
+      <c r="D77" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="E77" s="8" t="s">
+      <c r="E77" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="F77" s="8" t="s">
+      <c r="F77" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="G77" s="8"/>
-      <c r="H77" s="8"/>
-      <c r="I77" s="8" t="s">
+      <c r="G77" s="9"/>
+      <c r="H77" s="9"/>
+      <c r="I77" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="J77" s="8" t="s">
+      <c r="J77" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="K77" s="8" t="s">
+      <c r="K77" s="9" t="s">
         <v>226</v>
       </c>
-      <c r="L77" s="9" t="s">
+      <c r="L77" s="10" t="s">
         <v>229</v>
       </c>
       <c r="M77" s="5"/>
@@ -5555,7 +5561,7 @@
       </c>
       <c r="K78" s="2"/>
       <c r="L78" s="4"/>
-      <c r="M78" s="2" t="s">
+      <c r="M78" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N78" s="2" t="s">
@@ -5755,7 +5761,7 @@
       </c>
       <c r="K82" s="2"/>
       <c r="L82" s="4"/>
-      <c r="M82" s="2" t="s">
+      <c r="M82" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N82" s="2" t="s">
@@ -5943,22 +5949,22 @@
       <c r="B86" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C86" s="8" t="s">
+      <c r="C86" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D86" s="8"/>
-      <c r="E86" s="8"/>
-      <c r="F86" s="8"/>
-      <c r="G86" s="8"/>
-      <c r="H86" s="8"/>
-      <c r="I86" s="8"/>
-      <c r="J86" s="8" t="s">
+      <c r="D86" s="9"/>
+      <c r="E86" s="9"/>
+      <c r="F86" s="9"/>
+      <c r="G86" s="9"/>
+      <c r="H86" s="9"/>
+      <c r="I86" s="9"/>
+      <c r="J86" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="K86" s="8" t="s">
+      <c r="K86" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="L86" s="9" t="s">
+      <c r="L86" s="10" t="s">
         <v>229</v>
       </c>
       <c r="M86" s="5"/>
@@ -5976,27 +5982,27 @@
       <c r="A87" s="5" t="s">
         <v>331</v>
       </c>
-      <c r="B87" s="8" t="s">
+      <c r="B87" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C87" s="8" t="s">
+      <c r="C87" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D87" s="8" t="s">
+      <c r="D87" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="E87" s="8"/>
-      <c r="F87" s="8" t="s">
+      <c r="E87" s="9"/>
+      <c r="F87" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="G87" s="8"/>
-      <c r="H87" s="8"/>
-      <c r="I87" s="8"/>
-      <c r="J87" s="8" t="s">
+      <c r="G87" s="9"/>
+      <c r="H87" s="9"/>
+      <c r="I87" s="9"/>
+      <c r="J87" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="K87" s="8"/>
-      <c r="L87" s="9" t="s">
+      <c r="K87" s="9"/>
+      <c r="L87" s="10" t="s">
         <v>229</v>
       </c>
       <c r="M87" s="5"/>
@@ -6014,33 +6020,33 @@
       <c r="A88" s="5" t="s">
         <v>332</v>
       </c>
-      <c r="B88" s="8" t="s">
+      <c r="B88" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C88" s="8" t="s">
+      <c r="C88" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D88" s="8" t="s">
+      <c r="D88" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="E88" s="8" t="s">
+      <c r="E88" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="F88" s="8" t="s">
+      <c r="F88" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="G88" s="8" t="s">
+      <c r="G88" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="H88" s="8"/>
-      <c r="I88" s="8" t="s">
+      <c r="H88" s="9"/>
+      <c r="I88" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="J88" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="K88" s="8"/>
-      <c r="L88" s="9" t="s">
+      <c r="J88" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="K88" s="9"/>
+      <c r="L88" s="10" t="s">
         <v>229</v>
       </c>
       <c r="M88" s="5"/>
@@ -6061,20 +6067,20 @@
       <c r="B89" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C89" s="8" t="s">
+      <c r="C89" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D89" s="8"/>
-      <c r="E89" s="8"/>
-      <c r="F89" s="8"/>
-      <c r="G89" s="8"/>
-      <c r="H89" s="8"/>
-      <c r="I89" s="8"/>
-      <c r="J89" s="8" t="s">
+      <c r="D89" s="9"/>
+      <c r="E89" s="9"/>
+      <c r="F89" s="9"/>
+      <c r="G89" s="9"/>
+      <c r="H89" s="9"/>
+      <c r="I89" s="9"/>
+      <c r="J89" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="K89" s="8"/>
-      <c r="L89" s="9" t="s">
+      <c r="K89" s="9"/>
+      <c r="L89" s="10" t="s">
         <v>229</v>
       </c>
       <c r="M89" s="5"/>
@@ -6092,27 +6098,27 @@
       <c r="A90" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="B90" s="8" t="s">
+      <c r="B90" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C90" s="8" t="s">
+      <c r="C90" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D90" s="8" t="s">
+      <c r="D90" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="E90" s="8"/>
-      <c r="F90" s="8" t="s">
+      <c r="E90" s="9"/>
+      <c r="F90" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="G90" s="8"/>
-      <c r="H90" s="8"/>
-      <c r="I90" s="8"/>
-      <c r="J90" s="8" t="s">
+      <c r="G90" s="9"/>
+      <c r="H90" s="9"/>
+      <c r="I90" s="9"/>
+      <c r="J90" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="K90" s="8"/>
-      <c r="L90" s="9" t="s">
+      <c r="K90" s="9"/>
+      <c r="L90" s="10" t="s">
         <v>229</v>
       </c>
       <c r="M90" s="5"/>
@@ -6130,33 +6136,33 @@
       <c r="A91" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="B91" s="8" t="s">
+      <c r="B91" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C91" s="8" t="s">
+      <c r="C91" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D91" s="8" t="s">
+      <c r="D91" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="E91" s="8" t="s">
+      <c r="E91" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="F91" s="8" t="s">
+      <c r="F91" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="G91" s="8" t="s">
+      <c r="G91" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="H91" s="8"/>
-      <c r="I91" s="8" t="s">
+      <c r="H91" s="9"/>
+      <c r="I91" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="J91" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="K91" s="8"/>
-      <c r="L91" s="9" t="s">
+      <c r="J91" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="K91" s="9"/>
+      <c r="L91" s="10" t="s">
         <v>229</v>
       </c>
       <c r="M91" s="5"/>
@@ -6174,33 +6180,33 @@
       <c r="A92" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="B92" s="8" t="s">
+      <c r="B92" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C92" s="8" t="s">
+      <c r="C92" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D92" s="8" t="s">
+      <c r="D92" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="E92" s="8" t="s">
+      <c r="E92" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="F92" s="8" t="s">
+      <c r="F92" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="G92" s="8" t="s">
+      <c r="G92" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="H92" s="8"/>
-      <c r="I92" s="8" t="s">
+      <c r="H92" s="9"/>
+      <c r="I92" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="J92" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="K92" s="8"/>
-      <c r="L92" s="9" t="s">
+      <c r="J92" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="K92" s="9"/>
+      <c r="L92" s="10" t="s">
         <v>229</v>
       </c>
       <c r="M92" s="5"/>
@@ -6215,48 +6221,48 @@
       <c r="V92" s="5"/>
     </row>
     <row r="93" spans="1:22">
-      <c r="A93" s="5" t="s">
+      <c r="A93" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="B93" s="5" t="s">
+      <c r="B93" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C93" s="5"/>
-      <c r="D93" s="5" t="s">
+      <c r="C93" s="2"/>
+      <c r="D93" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E93" s="5"/>
+      <c r="E93" s="2"/>
       <c r="F93" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="G93" s="5"/>
-      <c r="H93" s="5"/>
-      <c r="I93" s="5"/>
-      <c r="J93" s="5" t="s">
+      <c r="G93" s="2"/>
+      <c r="H93" s="2"/>
+      <c r="I93" s="2"/>
+      <c r="J93" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="K93" s="5"/>
+      <c r="K93" s="2"/>
       <c r="L93" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="M93" s="5" t="s">
+      <c r="M93" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="N93" s="5"/>
-      <c r="O93" s="5" t="s">
+      <c r="N93" s="2"/>
+      <c r="O93" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="P93" s="5"/>
+      <c r="P93" s="2"/>
       <c r="Q93" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="R93" s="5"/>
-      <c r="S93" s="5"/>
-      <c r="T93" s="5"/>
-      <c r="U93" s="5" t="s">
+      <c r="R93" s="2"/>
+      <c r="S93" s="2"/>
+      <c r="T93" s="2"/>
+      <c r="U93" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="V93" s="5"/>
+      <c r="V93" s="2"/>
     </row>
     <row r="94" spans="1:22">
       <c r="A94" s="5" t="s">
